--- a/data/02_data_extraction/data_extraction_setJMGS_checkedSD.xlsx
+++ b/data/02_data_extraction/data_extraction_setJMGS_checkedSD.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/GNM_Analysis/data/02_data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1E8885-763B-584D-87C1-6DF7CA215AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56799F-180D-FC45-B030-08EE8FC92458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="76800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="64900" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -309,9 +309,6 @@
     <t>GNM_237</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>Not available</t>
   </si>
   <si>
@@ -330,21 +327,9 @@
     <t>excluded</t>
   </si>
   <si>
-    <t>Portuguese Air Force Base No. 6 - Montijo, Portugal, Tagus Estuary (38Â°41â€™40.45â€™â€™ N, 9Â°02â€™43.55â€™â€™ W).</t>
-  </si>
-  <si>
-    <t>Manzanares el Real (40Â° 45â€² N; 3Â° 50â€² W Madrid province, central Spain).</t>
-  </si>
-  <si>
     <t>Soto del Real, Madrid, Spain</t>
   </si>
   <si>
-    <t>Nova Scotia and New Brunswick, Canada (between 45840?N and 4680?N, and 64810?E and 64830?E)</t>
-  </si>
-  <si>
-    <t>Hoya de Guadix, southeast Spain (37Â°18â€™N, 3Â°11â€™W)</t>
-  </si>
-  <si>
     <t>Cyanistes caeruleus</t>
   </si>
   <si>
@@ -417,9 +402,6 @@
     <t>arthropod</t>
   </si>
   <si>
-    <t>Lodz_Poland</t>
-  </si>
-  <si>
     <t>Lopez-Rull I.; Gil D.</t>
   </si>
   <si>
@@ -504,9 +486,6 @@
     <t>Vosbergen, near Groningen, The Netherlands</t>
   </si>
   <si>
-    <t>Portuguese Air Force Base No. 6 - Montijo, Portugal, Tagus Estuary (38.4140.45â€™â€™ N, 9Â°02â€™43.55â€™â€™ W).</t>
-  </si>
-  <si>
     <t>Gladalski M.; Banbura M.; Kalinski A.; Markowski M.; Skwarska J.; Wawrzyniak J.; Zielinski P.; Banbura J.</t>
   </si>
   <si>
@@ -832,6 +811,27 @@
   </si>
   <si>
     <t>They use laying date as a covariate for he ANCOVA. However, we do not know the R2 from it for estimating SMDH with the correction factor.</t>
+  </si>
+  <si>
+    <t>Lodz, Poland (51.50N,19.29E)</t>
+  </si>
+  <si>
+    <t>Portuguese Air Force Base No. 6 - Montijo, Portugal, Tagus Estuary (38.4140.45N, 9.02.43.55 W).</t>
+  </si>
+  <si>
+    <t>Manzanares el Real (40.45 N; 3.50W Madrid province, central Spain).</t>
+  </si>
+  <si>
+    <t>Nova Scotia and New Brunswick, Canada (between 45.40N and 46.0N, and 64.10E and 64.30E)</t>
+  </si>
+  <si>
+    <t>Hoya de Guadix, southeast Spain (37.18N, 3.11W)</t>
+  </si>
+  <si>
+    <t>exclude_NA</t>
+  </si>
+  <si>
+    <t>Very difficult to assign a sign of relationship. Does an increase of WBC imply better fitness or worse? We consulted several researchers in the field and there was no clear way to understand this. Therefore, we decided to exclude it. For reasons, see the discussion provided in the materials of this project</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" topLeftCell="R22" zoomScale="137" workbookViewId="0">
+      <selection activeCell="AD36" sqref="AD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1475,13 +1475,13 @@
         <v>38</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AF1" s="7" t="s">
         <v>26</v>
@@ -1535,10 +1535,10 @@
         <v>45</v>
       </c>
       <c r="AW1" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AX1" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="16" x14ac:dyDescent="0.2">
@@ -1555,13 +1555,13 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F2">
         <v>2020</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1573,10 +1573,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
         <v>49</v>
@@ -1621,13 +1621,13 @@
         <v>16</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AB2" t="s">
         <v>63</v>
       </c>
       <c r="AC2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD2" t="s">
         <v>46</v>
@@ -1657,7 +1657,7 @@
         <v>46</v>
       </c>
       <c r="AM2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AN2" t="s">
         <v>46</v>
@@ -1669,13 +1669,13 @@
         <v>67</v>
       </c>
       <c r="AQ2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AR2" t="s">
         <v>54</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AT2" t="s">
         <v>65</v>
@@ -1707,13 +1707,13 @@
         <v>47</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F3" s="11">
         <v>2020</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -1725,10 +1725,10 @@
         <v>2</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>49</v>
@@ -1773,16 +1773,16 @@
         <v>16</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AB3" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AE3" s="11">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>46</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN3" s="11" t="s">
         <v>46</v>
@@ -1827,7 +1827,7 @@
         <v>54</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AT3" s="11" t="s">
         <v>65</v>
@@ -1856,16 +1856,16 @@
         <v>46</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F4" s="12">
         <v>2020</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="H4" s="12">
         <v>1</v>
@@ -1877,10 +1877,10 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>49</v>
@@ -1925,16 +1925,16 @@
         <v>16</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AB4" s="12" t="s">
         <v>63</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AE4" s="12">
         <v>-1</v>
@@ -1961,7 +1961,7 @@
         <v>46</v>
       </c>
       <c r="AM4" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AN4" s="12" t="s">
         <v>46</v>
@@ -1973,7 +1973,7 @@
         <v>67</v>
       </c>
       <c r="AQ4" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AR4" s="12" t="s">
         <v>54</v>
@@ -2008,16 +2008,16 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F5">
         <v>2020</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2029,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
         <v>49</v>
@@ -2077,25 +2077,25 @@
         <v>27</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AB5" t="s">
         <v>60</v>
       </c>
       <c r="AC5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AD5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AE5">
         <v>1</v>
       </c>
       <c r="AF5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AG5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AH5">
         <v>0.24</v>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="AM5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN5" t="s">
         <v>46</v>
@@ -2125,13 +2125,13 @@
         <v>67</v>
       </c>
       <c r="AQ5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AR5" t="s">
         <v>54</v>
       </c>
       <c r="AS5" s="28" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AT5" t="s">
         <v>65</v>
@@ -2160,16 +2160,16 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F6">
         <v>2020</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2181,10 +2181,10 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
         <v>49</v>
@@ -2229,25 +2229,25 @@
         <v>27</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AB6" t="s">
         <v>60</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AD6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AE6">
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AG6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AH6">
         <v>0.31</v>
@@ -2265,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="AM6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN6" t="s">
         <v>46</v>
@@ -2277,13 +2277,13 @@
         <v>67</v>
       </c>
       <c r="AQ6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AR6" t="s">
         <v>54</v>
       </c>
       <c r="AS6" s="28" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AT6" t="s">
         <v>65</v>
@@ -2312,16 +2312,16 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F7">
         <v>2020</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2333,10 +2333,10 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
         <v>49</v>
@@ -2381,25 +2381,25 @@
         <v>27</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AB7" t="s">
         <v>61</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AD7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AE7">
         <v>1</v>
       </c>
       <c r="AF7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AG7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AH7" s="1">
         <v>2E-3</v>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="AM7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN7" t="s">
         <v>46</v>
@@ -2429,13 +2429,13 @@
         <v>67</v>
       </c>
       <c r="AQ7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AR7" t="s">
         <v>54</v>
       </c>
       <c r="AS7" s="28" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AT7" t="s">
         <v>65</v>
@@ -2467,13 +2467,13 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F8">
         <v>2020</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -2485,10 +2485,10 @@
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s">
         <v>49</v>
@@ -2533,16 +2533,16 @@
         <v>3</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AB8" t="s">
         <v>61</v>
       </c>
       <c r="AC8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2581,7 +2581,7 @@
         <v>54</v>
       </c>
       <c r="AQ8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AR8" t="s">
         <v>54</v>
@@ -2619,13 +2619,13 @@
         <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F9">
         <v>2020</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -2634,13 +2634,13 @@
         <v>2</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
         <v>49</v>
@@ -2685,13 +2685,13 @@
         <v>4</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AB9" t="s">
         <v>61</v>
       </c>
       <c r="AC9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD9" t="s">
         <v>46</v>
@@ -2733,7 +2733,7 @@
         <v>54</v>
       </c>
       <c r="AQ9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AR9" t="s">
         <v>54</v>
@@ -2771,13 +2771,13 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F10">
         <v>2020</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -2786,13 +2786,13 @@
         <v>2</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
         <v>49</v>
@@ -2837,13 +2837,13 @@
         <v>7</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AB10" t="s">
         <v>61</v>
       </c>
       <c r="AC10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD10" t="s">
         <v>46</v>
@@ -2885,7 +2885,7 @@
         <v>54</v>
       </c>
       <c r="AQ10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AR10" t="s">
         <v>54</v>
@@ -2923,13 +2923,13 @@
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F11">
         <v>2020</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -2938,13 +2938,13 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s">
         <v>49</v>
@@ -2989,13 +2989,13 @@
         <v>3</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AB11" t="s">
         <v>61</v>
       </c>
       <c r="AC11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD11" t="s">
         <v>46</v>
@@ -3037,7 +3037,7 @@
         <v>54</v>
       </c>
       <c r="AQ11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AR11" t="s">
         <v>54</v>
@@ -3075,13 +3075,13 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F12">
         <v>2020</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -3090,13 +3090,13 @@
         <v>3</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M12" t="s">
         <v>49</v>
@@ -3141,13 +3141,13 @@
         <v>6</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AB12" t="s">
         <v>61</v>
       </c>
       <c r="AC12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD12" t="s">
         <v>46</v>
@@ -3189,7 +3189,7 @@
         <v>54</v>
       </c>
       <c r="AQ12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AR12" t="s">
         <v>54</v>
@@ -3227,13 +3227,13 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F13">
         <v>2020</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -3242,13 +3242,13 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s">
         <v>49</v>
@@ -3293,13 +3293,13 @@
         <v>4</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AB13" t="s">
         <v>61</v>
       </c>
       <c r="AC13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD13" t="s">
         <v>46</v>
@@ -3341,7 +3341,7 @@
         <v>54</v>
       </c>
       <c r="AQ13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AR13" t="s">
         <v>54</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="14" spans="1:50" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>46</v>
@@ -3493,13 +3493,13 @@
         <v>67</v>
       </c>
       <c r="AQ14" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AR14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="AS14" s="18" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AT14" s="5" t="s">
         <v>46</v>
@@ -3528,16 +3528,16 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F15">
         <v>2015</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -3549,10 +3549,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s">
         <v>50</v>
@@ -3597,13 +3597,13 @@
         <v>27</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AB15" t="s">
         <v>61</v>
       </c>
       <c r="AC15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD15" t="s">
         <v>46</v>
@@ -3633,7 +3633,7 @@
         <v>46</v>
       </c>
       <c r="AM15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AN15" t="s">
         <v>46</v>
@@ -3645,13 +3645,13 @@
         <v>67</v>
       </c>
       <c r="AQ15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AR15" t="s">
         <v>54</v>
       </c>
       <c r="AS15" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AT15" t="s">
         <v>65</v>
@@ -3680,16 +3680,16 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F16">
         <v>2015</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3701,10 +3701,10 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s">
         <v>50</v>
@@ -3749,13 +3749,13 @@
         <v>27</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AB16" t="s">
         <v>61</v>
       </c>
       <c r="AC16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD16" t="s">
         <v>46</v>
@@ -3785,7 +3785,7 @@
         <v>46</v>
       </c>
       <c r="AM16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AN16" t="s">
         <v>46</v>
@@ -3797,7 +3797,7 @@
         <v>67</v>
       </c>
       <c r="AQ16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AR16" t="s">
         <v>54</v>
@@ -3832,16 +3832,16 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F17">
         <v>2015</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3853,10 +3853,10 @@
         <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M17" t="s">
         <v>50</v>
@@ -3901,13 +3901,13 @@
         <v>27</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AB17" t="s">
         <v>61</v>
       </c>
       <c r="AC17" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD17" t="s">
         <v>46</v>
@@ -3937,7 +3937,7 @@
         <v>46</v>
       </c>
       <c r="AM17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AN17" t="s">
         <v>46</v>
@@ -3949,7 +3949,7 @@
         <v>67</v>
       </c>
       <c r="AQ17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AR17" t="s">
         <v>54</v>
@@ -3984,16 +3984,16 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F18">
         <v>2015</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -4005,10 +4005,10 @@
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
         <v>50</v>
@@ -4053,13 +4053,13 @@
         <v>27</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AB18" t="s">
         <v>61</v>
       </c>
       <c r="AC18" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD18" t="s">
         <v>46</v>
@@ -4089,7 +4089,7 @@
         <v>46</v>
       </c>
       <c r="AM18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AN18" t="s">
         <v>46</v>
@@ -4101,7 +4101,7 @@
         <v>67</v>
       </c>
       <c r="AQ18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AR18" t="s">
         <v>54</v>
@@ -4139,13 +4139,13 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F19">
         <v>2015</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -4157,10 +4157,10 @@
         <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s">
         <v>50</v>
@@ -4205,13 +4205,13 @@
         <v>27</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AB19" t="s">
         <v>60</v>
       </c>
       <c r="AC19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD19" t="s">
         <v>46</v>
@@ -4241,7 +4241,7 @@
         <v>46</v>
       </c>
       <c r="AM19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AN19" t="s">
         <v>46</v>
@@ -4253,7 +4253,7 @@
         <v>67</v>
       </c>
       <c r="AQ19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AR19" t="s">
         <v>54</v>
@@ -4291,28 +4291,28 @@
         <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F20">
         <v>2015</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>4</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
         <v>50</v>
@@ -4357,13 +4357,13 @@
         <v>27</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AB20" t="s">
         <v>60</v>
       </c>
       <c r="AC20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD20" t="s">
         <v>46</v>
@@ -4405,13 +4405,13 @@
         <v>67</v>
       </c>
       <c r="AQ20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AR20" t="s">
         <v>54</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AT20" t="s">
         <v>65</v>
@@ -4443,28 +4443,28 @@
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F21">
         <v>2015</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>5</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M21" t="s">
         <v>50</v>
@@ -4509,13 +4509,13 @@
         <v>27</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AB21" t="s">
         <v>60</v>
       </c>
       <c r="AC21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD21" t="s">
         <v>46</v>
@@ -4557,7 +4557,7 @@
         <v>67</v>
       </c>
       <c r="AQ21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AR21" t="s">
         <v>54</v>
@@ -4595,28 +4595,28 @@
         <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F22">
         <v>2015</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <v>6</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M22" t="s">
         <v>50</v>
@@ -4661,13 +4661,13 @@
         <v>27</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AB22" t="s">
         <v>60</v>
       </c>
       <c r="AC22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD22" t="s">
         <v>46</v>
@@ -4709,7 +4709,7 @@
         <v>67</v>
       </c>
       <c r="AQ22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AR22" t="s">
         <v>54</v>
@@ -4747,28 +4747,28 @@
         <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F23">
         <v>2015</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>7</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M23" t="s">
         <v>50</v>
@@ -4813,13 +4813,13 @@
         <v>27</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AB23" t="s">
         <v>60</v>
       </c>
       <c r="AC23" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD23" t="s">
         <v>46</v>
@@ -4861,7 +4861,7 @@
         <v>67</v>
       </c>
       <c r="AQ23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AR23" t="s">
         <v>54</v>
@@ -4899,13 +4899,13 @@
         <v>48</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F24" s="24">
         <v>2009</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H24" s="24">
         <v>1</v>
@@ -4917,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M24" s="24" t="s">
         <v>50</v>
@@ -4965,16 +4965,16 @@
         <v>11</v>
       </c>
       <c r="AA24" s="25" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AB24" s="24" t="s">
         <v>63</v>
       </c>
       <c r="AC24" s="24" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AD24" s="24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AE24" s="24">
         <v>1</v>
@@ -5001,7 +5001,7 @@
         <v>46</v>
       </c>
       <c r="AM24" s="24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AN24" s="24" t="s">
         <v>46</v>
@@ -5013,7 +5013,7 @@
         <v>67</v>
       </c>
       <c r="AQ24" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AR24" s="24" t="s">
         <v>54</v>
@@ -5051,13 +5051,13 @@
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F25">
         <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -5069,10 +5069,10 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M25" t="s">
         <v>50</v>
@@ -5117,13 +5117,13 @@
         <v>19</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AB25" t="s">
         <v>60</v>
       </c>
       <c r="AC25" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD25" t="s">
         <v>46</v>
@@ -5153,7 +5153,7 @@
         <v>46</v>
       </c>
       <c r="AM25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="s">
         <v>46</v>
@@ -5165,7 +5165,7 @@
         <v>67</v>
       </c>
       <c r="AQ25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AR25" t="s">
         <v>54</v>
@@ -5203,13 +5203,13 @@
         <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F26">
         <v>2009</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -5221,10 +5221,10 @@
         <v>3</v>
       </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M26" t="s">
         <v>50</v>
@@ -5269,13 +5269,13 @@
         <v>19</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AB26" t="s">
         <v>60</v>
       </c>
       <c r="AC26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD26" t="s">
         <v>46</v>
@@ -5305,7 +5305,7 @@
         <v>46</v>
       </c>
       <c r="AM26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AN26" t="s">
         <v>46</v>
@@ -5317,13 +5317,13 @@
         <v>67</v>
       </c>
       <c r="AQ26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AR26" t="s">
         <v>54</v>
       </c>
       <c r="AS26" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AT26" t="s">
         <v>65</v>
@@ -5355,13 +5355,13 @@
         <v>48</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F27" s="12">
         <v>2009</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H27" s="12">
         <v>1</v>
@@ -5373,10 +5373,10 @@
         <v>4</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>50</v>
@@ -5421,16 +5421,16 @@
         <v>19</v>
       </c>
       <c r="AA27" s="14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AB27" s="12" t="s">
         <v>63</v>
       </c>
       <c r="AC27" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AD27" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AE27" s="12">
         <v>1</v>
@@ -5457,7 +5457,7 @@
         <v>46</v>
       </c>
       <c r="AM27" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AN27" s="12" t="s">
         <v>46</v>
@@ -5469,13 +5469,13 @@
         <v>67</v>
       </c>
       <c r="AQ27" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AR27" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AS27" s="14" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AT27" s="12" t="s">
         <v>65</v>
@@ -5507,13 +5507,13 @@
         <v>48</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F28" s="12">
         <v>2009</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H28" s="12">
         <v>1</v>
@@ -5525,10 +5525,10 @@
         <v>5</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>50</v>
@@ -5573,16 +5573,16 @@
         <v>19</v>
       </c>
       <c r="AA28" s="14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AB28" s="12" t="s">
         <v>63</v>
       </c>
       <c r="AC28" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AD28" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AE28" s="12">
         <v>1</v>
@@ -5609,7 +5609,7 @@
         <v>46</v>
       </c>
       <c r="AM28" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AN28" s="12" t="s">
         <v>46</v>
@@ -5621,13 +5621,13 @@
         <v>67</v>
       </c>
       <c r="AQ28" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AR28" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AS28" s="14" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AT28" s="12" t="s">
         <v>65</v>
@@ -5659,13 +5659,13 @@
         <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29">
         <v>2007</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -5677,10 +5677,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s">
         <v>50</v>
@@ -5725,16 +5725,16 @@
         <v>23</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AB29" t="s">
         <v>60</v>
       </c>
       <c r="AC29" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD29" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AE29">
         <v>1</v>
@@ -5761,7 +5761,7 @@
         <v>46</v>
       </c>
       <c r="AM29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN29" t="s">
         <v>46</v>
@@ -5773,13 +5773,13 @@
         <v>67</v>
       </c>
       <c r="AQ29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AR29" t="s">
         <v>54</v>
       </c>
       <c r="AS29" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AT29" t="s">
         <v>65</v>
@@ -5811,13 +5811,13 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30">
         <v>2007</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -5829,10 +5829,10 @@
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M30" t="s">
         <v>50</v>
@@ -5877,13 +5877,13 @@
         <v>23</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AB30" t="s">
         <v>60</v>
       </c>
       <c r="AC30" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD30" t="s">
         <v>46</v>
@@ -5913,7 +5913,7 @@
         <v>46</v>
       </c>
       <c r="AM30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN30" t="s">
         <v>46</v>
@@ -5925,13 +5925,13 @@
         <v>67</v>
       </c>
       <c r="AQ30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AR30" t="s">
         <v>54</v>
       </c>
       <c r="AS30" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AT30" t="s">
         <v>65</v>
@@ -5963,13 +5963,13 @@
         <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31">
         <v>2007</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -5981,10 +5981,10 @@
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M31" t="s">
         <v>50</v>
@@ -6029,13 +6029,13 @@
         <v>23</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AB31" t="s">
         <v>60</v>
       </c>
       <c r="AC31" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD31" t="s">
         <v>46</v>
@@ -6065,7 +6065,7 @@
         <v>46</v>
       </c>
       <c r="AM31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN31" t="s">
         <v>46</v>
@@ -6077,7 +6077,7 @@
         <v>67</v>
       </c>
       <c r="AQ31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AR31" t="s">
         <v>54</v>
@@ -6115,13 +6115,13 @@
         <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32">
         <v>2007</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -6133,10 +6133,10 @@
         <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L32" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M32" t="s">
         <v>50</v>
@@ -6181,13 +6181,13 @@
         <v>23</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AB32" t="s">
         <v>61</v>
       </c>
       <c r="AC32" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD32" t="s">
         <v>46</v>
@@ -6217,7 +6217,7 @@
         <v>46</v>
       </c>
       <c r="AM32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN32" t="s">
         <v>46</v>
@@ -6229,7 +6229,7 @@
         <v>67</v>
       </c>
       <c r="AQ32" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AR32" t="s">
         <v>54</v>
@@ -6267,13 +6267,13 @@
         <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33">
         <v>2007</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -6285,10 +6285,10 @@
         <v>5</v>
       </c>
       <c r="K33" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L33" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M33" t="s">
         <v>50</v>
@@ -6333,13 +6333,13 @@
         <v>23</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AB33" t="s">
         <v>64</v>
       </c>
       <c r="AC33" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD33" t="s">
         <v>46</v>
@@ -6369,10 +6369,10 @@
         <v>46</v>
       </c>
       <c r="AM33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN33" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AO33" t="s">
         <v>57</v>
@@ -6381,7 +6381,7 @@
         <v>67</v>
       </c>
       <c r="AQ33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AR33" t="s">
         <v>54</v>
@@ -6419,13 +6419,13 @@
         <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34">
         <v>2007</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -6437,10 +6437,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L34" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M34" t="s">
         <v>50</v>
@@ -6485,13 +6485,13 @@
         <v>23</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AB34" t="s">
         <v>64</v>
       </c>
       <c r="AC34" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD34" t="s">
         <v>46</v>
@@ -6521,10 +6521,10 @@
         <v>46</v>
       </c>
       <c r="AM34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AO34" t="s">
         <v>57</v>
@@ -6533,7 +6533,7 @@
         <v>67</v>
       </c>
       <c r="AQ34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AR34" t="s">
         <v>54</v>
@@ -6568,16 +6568,16 @@
         <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35">
         <v>2007</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -6589,10 +6589,10 @@
         <v>7</v>
       </c>
       <c r="K35" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M35" t="s">
         <v>50</v>
@@ -6637,13 +6637,13 @@
         <v>23</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AB35" t="s">
         <v>61</v>
       </c>
       <c r="AC35" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD35" t="s">
         <v>46</v>
@@ -6673,7 +6673,7 @@
         <v>46</v>
       </c>
       <c r="AM35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN35" t="s">
         <v>46</v>
@@ -6685,7 +6685,7 @@
         <v>67</v>
       </c>
       <c r="AQ35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AR35" t="s">
         <v>54</v>
@@ -6720,16 +6720,16 @@
         <v>46</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="24">
         <v>2007</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="H36" s="24">
         <v>1</v>
@@ -6741,10 +6741,10 @@
         <v>8</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M36" s="24" t="s">
         <v>50</v>
@@ -6789,16 +6789,16 @@
         <v>23</v>
       </c>
       <c r="AA36" s="25" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AB36" s="24" t="s">
         <v>63</v>
       </c>
       <c r="AC36" s="24" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="AD36" s="24" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="AE36" s="24">
         <v>1</v>
@@ -6825,7 +6825,7 @@
         <v>46</v>
       </c>
       <c r="AM36" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN36" s="24" t="s">
         <v>46</v>
@@ -6837,7 +6837,7 @@
         <v>67</v>
       </c>
       <c r="AQ36" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AR36" s="24" t="s">
         <v>54</v>
@@ -6872,16 +6872,16 @@
         <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F37">
         <v>2002</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -6893,13 +6893,13 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>46</v>
@@ -6941,13 +6941,13 @@
         <v>11</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AB37" t="s">
         <v>60</v>
       </c>
       <c r="AC37" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD37" t="s">
         <v>46</v>
@@ -6977,7 +6977,7 @@
         <v>46</v>
       </c>
       <c r="AM37" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN37" t="s">
         <v>46</v>
@@ -6989,13 +6989,13 @@
         <v>67</v>
       </c>
       <c r="AQ37" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR37" t="s">
         <v>54</v>
       </c>
       <c r="AS37" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AT37" t="s">
         <v>65</v>
@@ -7024,16 +7024,16 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38">
         <v>2002</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -7045,10 +7045,10 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L38" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M38" t="s">
         <v>50</v>
@@ -7093,13 +7093,13 @@
         <v>4</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AB38" t="s">
         <v>60</v>
       </c>
       <c r="AC38" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD38" t="s">
         <v>46</v>
@@ -7129,7 +7129,7 @@
         <v>46</v>
       </c>
       <c r="AM38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN38" t="s">
         <v>46</v>
@@ -7141,13 +7141,13 @@
         <v>67</v>
       </c>
       <c r="AQ38" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR38" t="s">
         <v>54</v>
       </c>
       <c r="AS38" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AT38" t="s">
         <v>65</v>
@@ -7176,16 +7176,16 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F39">
         <v>2002</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -7197,10 +7197,10 @@
         <v>3</v>
       </c>
       <c r="K39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M39" t="s">
         <v>50</v>
@@ -7245,13 +7245,13 @@
         <v>4</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AB39" t="s">
         <v>60</v>
       </c>
       <c r="AC39" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD39" t="s">
         <v>46</v>
@@ -7281,7 +7281,7 @@
         <v>46</v>
       </c>
       <c r="AM39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN39" t="s">
         <v>46</v>
@@ -7293,13 +7293,13 @@
         <v>67</v>
       </c>
       <c r="AQ39" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR39" t="s">
         <v>54</v>
       </c>
       <c r="AS39" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AT39" t="s">
         <v>65</v>
@@ -7328,16 +7328,16 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40">
         <v>2002</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -7349,13 +7349,13 @@
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L40" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>46</v>
@@ -7397,13 +7397,13 @@
         <v>10</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AB40" t="s">
         <v>60</v>
       </c>
       <c r="AC40" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD40" t="s">
         <v>46</v>
@@ -7433,7 +7433,7 @@
         <v>46</v>
       </c>
       <c r="AM40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN40" t="s">
         <v>46</v>
@@ -7445,7 +7445,7 @@
         <v>67</v>
       </c>
       <c r="AQ40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR40" t="s">
         <v>54</v>
@@ -7477,16 +7477,16 @@
         <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F41">
         <v>2002</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -7498,10 +7498,10 @@
         <v>5</v>
       </c>
       <c r="K41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L41" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M41" t="s">
         <v>50</v>
@@ -7546,13 +7546,13 @@
         <v>4</v>
       </c>
       <c r="AA41" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AB41" t="s">
         <v>60</v>
       </c>
       <c r="AC41" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD41" t="s">
         <v>46</v>
@@ -7582,7 +7582,7 @@
         <v>46</v>
       </c>
       <c r="AM41" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN41" t="s">
         <v>46</v>
@@ -7594,7 +7594,7 @@
         <v>67</v>
       </c>
       <c r="AQ41" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR41" t="s">
         <v>54</v>
@@ -7626,16 +7626,16 @@
         <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42">
         <v>2002</v>
       </c>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -7647,10 +7647,10 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L42" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M42" t="s">
         <v>50</v>
@@ -7695,13 +7695,13 @@
         <v>4</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AB42" t="s">
         <v>60</v>
       </c>
       <c r="AC42" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD42" t="s">
         <v>46</v>
@@ -7731,7 +7731,7 @@
         <v>46</v>
       </c>
       <c r="AM42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN42" t="s">
         <v>46</v>
@@ -7743,7 +7743,7 @@
         <v>67</v>
       </c>
       <c r="AQ42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR42" t="s">
         <v>54</v>
@@ -7775,16 +7775,16 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F43">
         <v>2002</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -7796,13 +7796,13 @@
         <v>7</v>
       </c>
       <c r="K43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>46</v>
@@ -7844,13 +7844,13 @@
         <v>10</v>
       </c>
       <c r="AA43" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="AB43" t="s">
         <v>60</v>
       </c>
       <c r="AC43" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD43" t="s">
         <v>46</v>
@@ -7880,7 +7880,7 @@
         <v>46</v>
       </c>
       <c r="AM43" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN43" t="s">
         <v>46</v>
@@ -7892,7 +7892,7 @@
         <v>67</v>
       </c>
       <c r="AQ43" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR43" t="s">
         <v>54</v>
@@ -7924,16 +7924,16 @@
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44">
         <v>2002</v>
       </c>
       <c r="G44" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -7945,10 +7945,10 @@
         <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M44" t="s">
         <v>50</v>
@@ -7993,13 +7993,13 @@
         <v>4</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="AB44" t="s">
         <v>60</v>
       </c>
       <c r="AC44" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD44" t="s">
         <v>46</v>
@@ -8029,7 +8029,7 @@
         <v>46</v>
       </c>
       <c r="AM44" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN44" t="s">
         <v>46</v>
@@ -8041,7 +8041,7 @@
         <v>67</v>
       </c>
       <c r="AQ44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR44" t="s">
         <v>54</v>
@@ -8073,16 +8073,16 @@
         <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F45">
         <v>2002</v>
       </c>
       <c r="G45" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -8094,10 +8094,10 @@
         <v>9</v>
       </c>
       <c r="K45" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M45" t="s">
         <v>50</v>
@@ -8142,13 +8142,13 @@
         <v>4</v>
       </c>
       <c r="AA45" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="AB45" t="s">
         <v>60</v>
       </c>
       <c r="AC45" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD45" t="s">
         <v>46</v>
@@ -8178,7 +8178,7 @@
         <v>46</v>
       </c>
       <c r="AM45" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN45" t="s">
         <v>46</v>
@@ -8190,7 +8190,7 @@
         <v>67</v>
       </c>
       <c r="AQ45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR45" t="s">
         <v>54</v>
@@ -8222,16 +8222,16 @@
         <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F46">
         <v>2002</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -8243,13 +8243,13 @@
         <v>10</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L46" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>46</v>
@@ -8291,16 +8291,16 @@
         <v>11</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AB46" t="s">
         <v>62</v>
       </c>
       <c r="AC46" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD46" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AE46">
         <v>-1</v>
@@ -8327,7 +8327,7 @@
         <v>46</v>
       </c>
       <c r="AM46" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN46" t="s">
         <v>46</v>
@@ -8339,7 +8339,7 @@
         <v>67</v>
       </c>
       <c r="AQ46" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR46" t="s">
         <v>54</v>
@@ -8371,16 +8371,16 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F47">
         <v>2002</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -8392,10 +8392,10 @@
         <v>11</v>
       </c>
       <c r="K47" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L47" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M47" t="s">
         <v>50</v>
@@ -8440,16 +8440,16 @@
         <v>4</v>
       </c>
       <c r="AA47" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AB47" t="s">
         <v>62</v>
       </c>
       <c r="AC47" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD47" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AE47">
         <v>-1</v>
@@ -8476,7 +8476,7 @@
         <v>46</v>
       </c>
       <c r="AM47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN47" t="s">
         <v>46</v>
@@ -8488,7 +8488,7 @@
         <v>67</v>
       </c>
       <c r="AQ47" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR47" t="s">
         <v>54</v>
@@ -8520,16 +8520,16 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F48">
         <v>2002</v>
       </c>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -8541,10 +8541,10 @@
         <v>12</v>
       </c>
       <c r="K48" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L48" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M48" t="s">
         <v>50</v>
@@ -8589,16 +8589,16 @@
         <v>4</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AB48" t="s">
         <v>62</v>
       </c>
       <c r="AC48" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AE48">
         <v>-1</v>
@@ -8625,7 +8625,7 @@
         <v>46</v>
       </c>
       <c r="AM48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AN48" t="s">
         <v>46</v>
@@ -8637,7 +8637,7 @@
         <v>67</v>
       </c>
       <c r="AQ48" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR48" t="s">
         <v>54</v>
@@ -8669,16 +8669,16 @@
         <v>46</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F49" s="6">
         <v>2002</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>46</v>
@@ -8690,7 +8690,7 @@
         <v>46</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>46</v>
@@ -8738,16 +8738,16 @@
         <v>46</v>
       </c>
       <c r="AA49" s="19" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AB49" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AE49" s="6">
         <v>1</v>
@@ -8792,7 +8792,7 @@
         <v>54</v>
       </c>
       <c r="AS49" s="19" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AT49" s="6" t="s">
         <v>65</v>
@@ -8821,16 +8821,16 @@
         <v>46</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F50" s="6">
         <v>2002</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>46</v>
@@ -8842,7 +8842,7 @@
         <v>46</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>46</v>
@@ -8890,16 +8890,16 @@
         <v>46</v>
       </c>
       <c r="AA50" s="19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AB50" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AE50" s="6">
         <v>1</v>
@@ -8970,16 +8970,16 @@
         <v>46</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51" s="6">
         <v>2002</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>46</v>
@@ -8991,7 +8991,7 @@
         <v>46</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>46</v>
@@ -9039,16 +9039,16 @@
         <v>46</v>
       </c>
       <c r="AA51" s="19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AE51" s="6">
         <v>1</v>
@@ -9119,16 +9119,16 @@
         <v>46</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F52" s="6">
         <v>2002</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>46</v>
@@ -9140,7 +9140,7 @@
         <v>46</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>46</v>
@@ -9188,16 +9188,16 @@
         <v>46</v>
       </c>
       <c r="AA52" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AB52" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AE52" s="6">
         <v>1</v>
@@ -9268,16 +9268,16 @@
         <v>46</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F53" s="6">
         <v>2002</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>46</v>
@@ -9289,7 +9289,7 @@
         <v>46</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>46</v>
@@ -9337,16 +9337,16 @@
         <v>46</v>
       </c>
       <c r="AA53" s="19" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AB53" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AE53" s="6">
         <v>1</v>
@@ -9417,16 +9417,16 @@
         <v>46</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F54" s="6">
         <v>2002</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>46</v>
@@ -9438,7 +9438,7 @@
         <v>46</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>46</v>
@@ -9486,16 +9486,16 @@
         <v>46</v>
       </c>
       <c r="AA54" s="19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AB54" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AC54" s="6" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD54" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AE54" s="6">
         <v>1</v>
@@ -9566,16 +9566,16 @@
         <v>46</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F55" s="6">
         <v>2002</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>46</v>
@@ -9587,7 +9587,7 @@
         <v>46</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>46</v>
@@ -9635,16 +9635,16 @@
         <v>46</v>
       </c>
       <c r="AA55" s="19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AB55" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AE55" s="6">
         <v>1</v>
@@ -9715,16 +9715,16 @@
         <v>46</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" s="6">
         <v>2002</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>46</v>
@@ -9736,7 +9736,7 @@
         <v>46</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>46</v>
@@ -9784,16 +9784,16 @@
         <v>46</v>
       </c>
       <c r="AA56" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AB56" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AE56" s="6">
         <v>1</v>
@@ -9864,16 +9864,16 @@
         <v>46</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F57" s="12">
         <v>2002</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H57" s="12">
         <v>1</v>
@@ -9885,13 +9885,13 @@
         <v>13</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N57" s="14" t="s">
         <v>46</v>
@@ -9933,16 +9933,16 @@
         <v>4</v>
       </c>
       <c r="AA57" s="14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AB57" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AC57" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD57" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AE57" s="12">
         <v>-1</v>
@@ -10013,16 +10013,16 @@
         <v>46</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F58" s="12">
         <v>2002</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H58" s="12">
         <v>1</v>
@@ -10034,10 +10034,10 @@
         <v>14</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M58" s="12" t="s">
         <v>50</v>
@@ -10082,16 +10082,16 @@
         <v>10</v>
       </c>
       <c r="AA58" s="14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AB58" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AC58" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD58" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AE58" s="12">
         <v>-1</v>
@@ -10162,16 +10162,16 @@
         <v>46</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F59" s="12">
         <v>2002</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H59" s="12">
         <v>1</v>
@@ -10183,10 +10183,10 @@
         <v>15</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M59" s="12" t="s">
         <v>50</v>
@@ -10231,16 +10231,16 @@
         <v>4</v>
       </c>
       <c r="AA59" s="14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AB59" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AC59" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD59" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AE59" s="12">
         <v>-1</v>
@@ -10311,16 +10311,16 @@
         <v>46</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F60" s="12">
         <v>2002</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H60" s="12">
         <v>1</v>
@@ -10332,13 +10332,13 @@
         <v>16</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N60" s="14" t="s">
         <v>46</v>
@@ -10380,16 +10380,16 @@
         <v>4</v>
       </c>
       <c r="AA60" s="14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AB60" s="12" t="s">
         <v>61</v>
       </c>
       <c r="AC60" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD60" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AE60" s="12">
         <v>1</v>
@@ -10460,16 +10460,16 @@
         <v>46</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F61" s="12">
         <v>2002</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H61" s="12">
         <v>1</v>
@@ -10481,10 +10481,10 @@
         <v>17</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M61" s="12" t="s">
         <v>50</v>
@@ -10529,16 +10529,16 @@
         <v>10</v>
       </c>
       <c r="AA61" s="14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AB61" s="12" t="s">
         <v>61</v>
       </c>
       <c r="AC61" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD61" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AE61" s="12">
         <v>1</v>
@@ -10609,16 +10609,16 @@
         <v>46</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F62" s="12">
         <v>2002</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H62" s="12">
         <v>1</v>
@@ -10630,10 +10630,10 @@
         <v>18</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M62" s="12" t="s">
         <v>50</v>
@@ -10678,16 +10678,16 @@
         <v>4</v>
       </c>
       <c r="AA62" s="14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AB62" s="12" t="s">
         <v>61</v>
       </c>
       <c r="AC62" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD62" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AE62" s="12">
         <v>1</v>
@@ -10758,16 +10758,16 @@
         <v>46</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F63" s="12">
         <v>2002</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H63" s="12">
         <v>1</v>
@@ -10779,13 +10779,13 @@
         <v>19</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N63" s="14" t="s">
         <v>46</v>
@@ -10827,16 +10827,16 @@
         <v>4</v>
       </c>
       <c r="AA63" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AB63" s="12" t="s">
         <v>60</v>
       </c>
       <c r="AC63" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD63" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AE63" s="12">
         <v>1</v>
@@ -10907,16 +10907,16 @@
         <v>46</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F64" s="12">
         <v>2002</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H64" s="12">
         <v>1</v>
@@ -10928,10 +10928,10 @@
         <v>20</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M64" s="12" t="s">
         <v>50</v>
@@ -10976,16 +10976,16 @@
         <v>10</v>
       </c>
       <c r="AA64" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AB64" s="12" t="s">
         <v>60</v>
       </c>
       <c r="AC64" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD64" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AE64" s="12">
         <v>1</v>
@@ -11056,16 +11056,16 @@
         <v>46</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F65" s="12">
         <v>2002</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H65" s="12">
         <v>1</v>
@@ -11077,10 +11077,10 @@
         <v>21</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M65" s="12" t="s">
         <v>50</v>
@@ -11125,16 +11125,16 @@
         <v>4</v>
       </c>
       <c r="AA65" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AB65" s="12" t="s">
         <v>60</v>
       </c>
       <c r="AC65" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD65" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AE65" s="12">
         <v>1</v>
@@ -11196,13 +11196,13 @@
     </row>
     <row r="66" spans="1:50" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>46</v>
@@ -11322,7 +11322,7 @@
         <v>67</v>
       </c>
       <c r="AQ66" s="17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AR66" s="17"/>
       <c r="AT66" s="17" t="s">
@@ -11352,16 +11352,16 @@
         <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F67">
         <v>2016</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -11373,10 +11373,10 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L67" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M67" t="s">
         <v>50</v>
@@ -11421,13 +11421,13 @@
         <v>8</v>
       </c>
       <c r="AA67" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AB67" t="s">
         <v>64</v>
       </c>
       <c r="AC67" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD67" t="s">
         <v>46</v>
@@ -11457,10 +11457,10 @@
         <v>46</v>
       </c>
       <c r="AM67" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN67" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO67" t="s">
         <v>59</v>
@@ -11469,13 +11469,13 @@
         <v>67</v>
       </c>
       <c r="AQ67" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AR67" t="s">
         <v>54</v>
       </c>
       <c r="AS67" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AT67" s="3" t="s">
         <v>65</v>
@@ -11504,16 +11504,16 @@
         <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F68">
         <v>2016</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -11522,13 +11522,13 @@
         <v>2</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M68" t="s">
         <v>50</v>
@@ -11573,13 +11573,13 @@
         <v>6</v>
       </c>
       <c r="AA68" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AB68" t="s">
         <v>64</v>
       </c>
       <c r="AC68" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD68" t="s">
         <v>46</v>
@@ -11609,10 +11609,10 @@
         <v>46</v>
       </c>
       <c r="AM68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO68" t="s">
         <v>59</v>
@@ -11621,13 +11621,13 @@
         <v>67</v>
       </c>
       <c r="AQ68" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AR68" t="s">
         <v>54</v>
       </c>
       <c r="AS68" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AT68" s="3" t="s">
         <v>65</v>
@@ -11656,16 +11656,16 @@
         <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F69">
         <v>2016</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -11674,13 +11674,13 @@
         <v>3</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K69" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L69" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M69" t="s">
         <v>50</v>
@@ -11725,13 +11725,13 @@
         <v>10</v>
       </c>
       <c r="AA69" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AB69" t="s">
         <v>64</v>
       </c>
       <c r="AC69" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD69" t="s">
         <v>46</v>
@@ -11761,10 +11761,10 @@
         <v>46</v>
       </c>
       <c r="AM69" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN69" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO69" t="s">
         <v>59</v>
@@ -11773,13 +11773,13 @@
         <v>67</v>
       </c>
       <c r="AQ69" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AR69" t="s">
         <v>54</v>
       </c>
       <c r="AS69" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AT69" s="3" t="s">
         <v>65</v>
@@ -11808,16 +11808,16 @@
         <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F70">
         <v>2016</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -11826,13 +11826,13 @@
         <v>4</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K70" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L70" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M70" t="s">
         <v>50</v>
@@ -11877,16 +11877,16 @@
         <v>6</v>
       </c>
       <c r="AA70" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AB70" t="s">
         <v>64</v>
       </c>
       <c r="AC70" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD70" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AE70">
         <v>-1</v>
@@ -11913,10 +11913,10 @@
         <v>46</v>
       </c>
       <c r="AM70" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN70" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO70" t="s">
         <v>59</v>
@@ -11925,13 +11925,13 @@
         <v>67</v>
       </c>
       <c r="AQ70" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AR70" t="s">
         <v>54</v>
       </c>
       <c r="AS70" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AT70" s="3" t="s">
         <v>65</v>
@@ -11960,16 +11960,16 @@
         <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F71">
         <v>2016</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -11978,13 +11978,13 @@
         <v>4</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K71" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L71" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M71" t="s">
         <v>50</v>
@@ -12029,13 +12029,13 @@
         <v>4</v>
       </c>
       <c r="AA71" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AB71" t="s">
         <v>64</v>
       </c>
       <c r="AC71" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD71" t="s">
         <v>46</v>
@@ -12065,10 +12065,10 @@
         <v>46</v>
       </c>
       <c r="AM71" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO71" t="s">
         <v>59</v>
@@ -12077,13 +12077,13 @@
         <v>67</v>
       </c>
       <c r="AQ71" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AR71" t="s">
         <v>54</v>
       </c>
       <c r="AS71" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AT71" s="3" t="s">
         <v>65</v>
@@ -12112,16 +12112,16 @@
         <v>46</v>
       </c>
       <c r="D72" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F72">
         <v>2016</v>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -12130,13 +12130,13 @@
         <v>5</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K72" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L72" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M72" t="s">
         <v>50</v>
@@ -12181,13 +12181,13 @@
         <v>4</v>
       </c>
       <c r="AA72" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AB72" t="s">
         <v>64</v>
       </c>
       <c r="AC72" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD72" t="s">
         <v>46</v>
@@ -12217,10 +12217,10 @@
         <v>46</v>
       </c>
       <c r="AM72" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN72" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO72" t="s">
         <v>59</v>
@@ -12229,13 +12229,13 @@
         <v>67</v>
       </c>
       <c r="AQ72" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AR72" t="s">
         <v>54</v>
       </c>
       <c r="AS72" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AT72" s="3" t="s">
         <v>65</v>
@@ -12264,16 +12264,16 @@
         <v>46</v>
       </c>
       <c r="D73" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F73">
         <v>2016</v>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -12282,13 +12282,13 @@
         <v>5</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K73" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L73" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M73" t="s">
         <v>50</v>
@@ -12333,16 +12333,16 @@
         <v>7</v>
       </c>
       <c r="AA73" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AB73" t="s">
         <v>64</v>
       </c>
       <c r="AC73" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD73" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AE73">
         <v>-1</v>
@@ -12369,10 +12369,10 @@
         <v>46</v>
       </c>
       <c r="AM73" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN73" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO73" t="s">
         <v>59</v>
@@ -12381,13 +12381,13 @@
         <v>67</v>
       </c>
       <c r="AQ73" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AR73" t="s">
         <v>54</v>
       </c>
       <c r="AS73" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AT73" s="3" t="s">
         <v>65</v>
@@ -12416,16 +12416,16 @@
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F74">
         <v>2016</v>
       </c>
       <c r="G74" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -12434,13 +12434,13 @@
         <v>6</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K74" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L74" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M74" t="s">
         <v>50</v>
@@ -12485,16 +12485,16 @@
         <v>6</v>
       </c>
       <c r="AA74" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AB74" t="s">
         <v>64</v>
       </c>
       <c r="AC74" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AD74" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AE74">
         <v>-1</v>
@@ -12521,10 +12521,10 @@
         <v>46</v>
       </c>
       <c r="AM74" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN74" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO74" t="s">
         <v>59</v>
@@ -12533,13 +12533,13 @@
         <v>67</v>
       </c>
       <c r="AQ74" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AR74" t="s">
         <v>54</v>
       </c>
       <c r="AS74" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AT74" s="3" t="s">
         <v>65</v>
@@ -12568,16 +12568,16 @@
         <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F75">
         <v>2016</v>
       </c>
       <c r="G75" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -12586,13 +12586,13 @@
         <v>6</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K75" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L75" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M75" t="s">
         <v>50</v>
@@ -12637,13 +12637,13 @@
         <v>3</v>
       </c>
       <c r="AA75" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AB75" t="s">
         <v>64</v>
       </c>
       <c r="AC75" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD75" t="s">
         <v>46</v>
@@ -12673,10 +12673,10 @@
         <v>46</v>
       </c>
       <c r="AM75" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AN75" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO75" t="s">
         <v>59</v>
@@ -12685,13 +12685,13 @@
         <v>67</v>
       </c>
       <c r="AQ75" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AR75" t="s">
         <v>54</v>
       </c>
       <c r="AS75" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AT75" s="3" t="s">
         <v>65</v>
@@ -12711,13 +12711,13 @@
     </row>
     <row r="76" spans="1:50" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>46</v>
@@ -12837,7 +12837,7 @@
         <v>67</v>
       </c>
       <c r="AQ76" s="17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AR76" s="17" t="s">
         <v>54</v>
@@ -12863,13 +12863,13 @@
     </row>
     <row r="77" spans="1:50" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>46</v>
@@ -12989,7 +12989,7 @@
         <v>67</v>
       </c>
       <c r="AQ77" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AR77" s="17" t="s">
         <v>54</v>

--- a/data/02_data_extraction/data_extraction_setJMGS_checkedSD.xlsx
+++ b/data/02_data_extraction/data_extraction_setJMGS_checkedSD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/GNM_Analysis/data/02_data_extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/Green_Nest_Material/data/02_data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56799F-180D-FC45-B030-08EE8FC92458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3237DFFE-663B-4740-AFF9-F7ADCDCEC361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="64900" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="71720" windowHeight="23280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R22" zoomScale="137" workbookViewId="0">
-      <selection activeCell="AD36" sqref="AD36"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="AQ52" sqref="AQ52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8780,7 +8780,7 @@
         <v>46</v>
       </c>
       <c r="AO49" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP49" s="6" t="s">
         <v>67</v>
@@ -8932,7 +8932,7 @@
         <v>46</v>
       </c>
       <c r="AO50" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP50" s="6" t="s">
         <v>67</v>
@@ -9081,7 +9081,7 @@
         <v>46</v>
       </c>
       <c r="AO51" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP51" s="6" t="s">
         <v>67</v>
@@ -9230,7 +9230,7 @@
         <v>46</v>
       </c>
       <c r="AO52" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP52" s="6" t="s">
         <v>67</v>
@@ -9379,7 +9379,7 @@
         <v>46</v>
       </c>
       <c r="AO53" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP53" s="6" t="s">
         <v>67</v>
@@ -9528,7 +9528,7 @@
         <v>46</v>
       </c>
       <c r="AO54" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP54" s="6" t="s">
         <v>67</v>
@@ -9677,7 +9677,7 @@
         <v>46</v>
       </c>
       <c r="AO55" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP55" s="6" t="s">
         <v>67</v>
@@ -9826,7 +9826,7 @@
         <v>46</v>
       </c>
       <c r="AO56" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP56" s="6" t="s">
         <v>67</v>
@@ -9975,7 +9975,7 @@
         <v>46</v>
       </c>
       <c r="AO57" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP57" s="12" t="s">
         <v>67</v>
@@ -10124,7 +10124,7 @@
         <v>46</v>
       </c>
       <c r="AO58" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP58" s="12" t="s">
         <v>67</v>
@@ -10273,7 +10273,7 @@
         <v>46</v>
       </c>
       <c r="AO59" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP59" s="12" t="s">
         <v>67</v>
@@ -10422,7 +10422,7 @@
         <v>46</v>
       </c>
       <c r="AO60" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP60" s="12" t="s">
         <v>67</v>
@@ -10571,7 +10571,7 @@
         <v>46</v>
       </c>
       <c r="AO61" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP61" s="12" t="s">
         <v>67</v>
@@ -10720,7 +10720,7 @@
         <v>46</v>
       </c>
       <c r="AO62" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP62" s="12" t="s">
         <v>67</v>
@@ -10869,7 +10869,7 @@
         <v>46</v>
       </c>
       <c r="AO63" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP63" s="12" t="s">
         <v>67</v>
@@ -11018,7 +11018,7 @@
         <v>46</v>
       </c>
       <c r="AO64" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP64" s="12" t="s">
         <v>67</v>
@@ -11167,7 +11167,7 @@
         <v>46</v>
       </c>
       <c r="AO65" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP65" s="12" t="s">
         <v>67</v>
